--- a/vedois/professores (importar)/Prof 11_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 11_horarios.xlsx
@@ -733,9 +733,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -750,9 +750,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -767,9 +767,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -784,9 +784,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -903,9 +903,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -920,9 +920,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -937,9 +937,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -954,9 +954,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -1413,9 +1413,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1430,9 +1430,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1447,9 +1447,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1464,9 +1464,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Organização e Arquitetura de Computadores (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1498,9 +1498,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1515,9 +1515,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1532,9 +1532,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1549,9 +1549,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (MBA) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
